--- a/app/static/local_file/export/MG1902273.xlsx
+++ b/app/static/local_file/export/MG1902273.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="435">
   <si>
     <t>Sample_name</t>
   </si>
@@ -422,58 +422,61 @@
     <t>2159</t>
   </si>
   <si>
+    <t>chr19</t>
+  </si>
+  <si>
+    <t>15272289</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>NOTCH3</t>
+  </si>
+  <si>
+    <t>synonymous SNV</t>
+  </si>
+  <si>
+    <t>NOTCH3:NM_000435:exon33:c.C6150T:p.L2050L</t>
+  </si>
+  <si>
+    <t>Likely benign</t>
+  </si>
+  <si>
+    <t>c.6150C&gt;T</t>
+  </si>
+  <si>
+    <t>p.Leu2050Leu</t>
+  </si>
+  <si>
+    <t>NM_000435</t>
+  </si>
+  <si>
+    <t>exon33</t>
+  </si>
+  <si>
+    <t>429</t>
+  </si>
+  <si>
+    <t>-109.4</t>
+  </si>
+  <si>
+    <t>0.052</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>0.022</t>
+  </si>
+  <si>
+    <t>368</t>
+  </si>
+  <si>
     <t>审核完成</t>
   </si>
   <si>
-    <t>chr19</t>
-  </si>
-  <si>
-    <t>15272289</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>NOTCH3</t>
-  </si>
-  <si>
-    <t>synonymous SNV</t>
-  </si>
-  <si>
-    <t>NOTCH3:NM_000435:exon33:c.C6150T:p.L2050L</t>
-  </si>
-  <si>
-    <t>Likely benign</t>
-  </si>
-  <si>
-    <t>c.6150C&gt;T</t>
-  </si>
-  <si>
-    <t>p.Leu2050Leu</t>
-  </si>
-  <si>
-    <t>NM_000435</t>
-  </si>
-  <si>
-    <t>exon33</t>
-  </si>
-  <si>
-    <t>429</t>
-  </si>
-  <si>
-    <t>-109.4</t>
-  </si>
-  <si>
-    <t>0.052</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>0.022</t>
-  </si>
-  <si>
-    <t>368</t>
+    <t>;</t>
   </si>
   <si>
     <t>18966005</t>
@@ -2396,7 +2399,7 @@
         <v>133</v>
       </c>
       <c r="AW3" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="AX3" t="s"/>
       <c r="AY3" t="s"/>
@@ -2406,150 +2409,152 @@
         <v>79</v>
       </c>
       <c r="B4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" t="s">
         <v>135</v>
       </c>
-      <c r="C4" t="s">
-        <v>136</v>
-      </c>
       <c r="D4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E4" t="s">
         <v>83</v>
       </c>
       <c r="F4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G4" t="s">
         <v>107</v>
       </c>
       <c r="H4" t="s">
+        <v>137</v>
+      </c>
+      <c r="I4" t="s">
+        <v>87</v>
+      </c>
+      <c r="J4" t="s">
         <v>138</v>
       </c>
-      <c r="I4" t="s">
-        <v>87</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>139</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>140</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
+        <v>87</v>
+      </c>
+      <c r="N4" t="s">
+        <v>87</v>
+      </c>
+      <c r="O4" t="s">
+        <v>87</v>
+      </c>
+      <c r="P4" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>87</v>
+      </c>
+      <c r="R4" t="s">
+        <v>87</v>
+      </c>
+      <c r="S4" t="s">
+        <v>87</v>
+      </c>
+      <c r="T4" t="s">
+        <v>87</v>
+      </c>
+      <c r="U4" t="s">
+        <v>87</v>
+      </c>
+      <c r="V4" t="s">
+        <v>87</v>
+      </c>
+      <c r="W4" t="s">
+        <v>87</v>
+      </c>
+      <c r="X4" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM4" t="s">
         <v>141</v>
       </c>
-      <c r="M4" t="s">
-        <v>87</v>
-      </c>
-      <c r="N4" t="s">
-        <v>87</v>
-      </c>
-      <c r="O4" t="s">
-        <v>87</v>
-      </c>
-      <c r="P4" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>87</v>
-      </c>
-      <c r="R4" t="s">
-        <v>87</v>
-      </c>
-      <c r="S4" t="s">
-        <v>87</v>
-      </c>
-      <c r="T4" t="s">
-        <v>87</v>
-      </c>
-      <c r="U4" t="s">
-        <v>87</v>
-      </c>
-      <c r="V4" t="s">
-        <v>87</v>
-      </c>
-      <c r="W4" t="s">
-        <v>87</v>
-      </c>
-      <c r="X4" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AM4" t="s">
+      <c r="AN4" t="s">
         <v>142</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="AO4" t="s">
         <v>143</v>
       </c>
-      <c r="AO4" t="s">
+      <c r="AP4" t="s">
         <v>144</v>
       </c>
-      <c r="AP4" t="s">
+      <c r="AQ4" t="s">
         <v>145</v>
       </c>
-      <c r="AQ4" t="s">
+      <c r="AR4" t="s">
         <v>146</v>
       </c>
-      <c r="AR4" t="s">
+      <c r="AS4" t="s">
         <v>147</v>
       </c>
-      <c r="AS4" t="s">
+      <c r="AT4" t="s">
         <v>148</v>
       </c>
-      <c r="AT4" t="s">
+      <c r="AU4" t="s">
         <v>149</v>
       </c>
-      <c r="AU4" t="s">
+      <c r="AV4" t="s">
         <v>150</v>
       </c>
-      <c r="AV4" t="s">
+      <c r="AW4" t="s">
         <v>151</v>
       </c>
-      <c r="AW4" t="s">
-        <v>134</v>
-      </c>
-      <c r="AX4" t="s"/>
+      <c r="AX4" t="s">
+        <v>152</v>
+      </c>
       <c r="AY4" t="s"/>
     </row>
     <row r="5" spans="1:51">
@@ -2557,25 +2562,25 @@
         <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E5" t="s">
         <v>83</v>
       </c>
       <c r="F5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G5" t="s">
         <v>107</v>
       </c>
       <c r="H5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I5" t="s">
         <v>87</v>
@@ -2584,7 +2589,7 @@
         <v>109</v>
       </c>
       <c r="K5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L5" t="s">
         <v>111</v>
@@ -2653,7 +2658,7 @@
         <v>87</v>
       </c>
       <c r="AH5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AI5" t="s">
         <v>123</v>
@@ -2668,39 +2673,41 @@
         <v>87</v>
       </c>
       <c r="AM5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AN5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AO5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AP5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AQ5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AR5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AS5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AT5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AU5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AV5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AW5" t="s">
-        <v>134</v>
-      </c>
-      <c r="AX5" t="s"/>
+        <v>151</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>152</v>
+      </c>
       <c r="AY5" t="s"/>
     </row>
     <row r="6" spans="1:51">
@@ -2708,34 +2715,34 @@
         <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G6" t="s">
         <v>107</v>
       </c>
       <c r="H6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I6" t="s">
         <v>87</v>
       </c>
       <c r="J6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L6" t="s">
         <v>87</v>
@@ -2777,7 +2784,7 @@
         <v>87</v>
       </c>
       <c r="Y6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Z6" t="s">
         <v>87</v>
@@ -2786,10 +2793,10 @@
         <v>87</v>
       </c>
       <c r="AB6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AC6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AD6" t="s">
         <v>87</v>
@@ -2819,39 +2826,41 @@
         <v>87</v>
       </c>
       <c r="AM6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AN6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AO6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AP6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AQ6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AR6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AS6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AT6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AU6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AV6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AW6" t="s">
-        <v>134</v>
-      </c>
-      <c r="AX6" t="s"/>
+        <v>151</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>152</v>
+      </c>
       <c r="AY6" t="s"/>
     </row>
     <row r="7" spans="1:51">
@@ -2859,13 +2868,13 @@
         <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E7" t="s">
         <v>106</v>
@@ -2877,19 +2886,19 @@
         <v>107</v>
       </c>
       <c r="H7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I7" t="s">
         <v>87</v>
       </c>
       <c r="J7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M7" t="s">
         <v>87</v>
@@ -2904,10 +2913,10 @@
         <v>87</v>
       </c>
       <c r="Q7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="R7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="S7" t="s">
         <v>87</v>
@@ -2970,39 +2979,41 @@
         <v>87</v>
       </c>
       <c r="AM7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AN7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AO7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AP7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AQ7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AR7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AS7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AT7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AU7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AV7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AW7" t="s">
-        <v>134</v>
-      </c>
-      <c r="AX7" t="s"/>
+        <v>151</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>152</v>
+      </c>
       <c r="AY7" t="s"/>
     </row>
     <row r="8" spans="1:51">
@@ -3010,16 +3021,16 @@
         <v>79</v>
       </c>
       <c r="B8" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F8" t="s">
         <v>82</v>
@@ -3028,16 +3039,16 @@
         <v>107</v>
       </c>
       <c r="H8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I8" t="s">
         <v>87</v>
       </c>
       <c r="J8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L8" t="s">
         <v>87</v>
@@ -3121,39 +3132,41 @@
         <v>87</v>
       </c>
       <c r="AM8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AN8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AO8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AP8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AQ8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AR8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AS8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AT8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AU8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AV8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AW8" t="s">
-        <v>134</v>
-      </c>
-      <c r="AX8" t="s"/>
+        <v>151</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>152</v>
+      </c>
       <c r="AY8" t="s"/>
     </row>
     <row r="9" spans="1:51">
@@ -3161,13 +3174,13 @@
         <v>79</v>
       </c>
       <c r="B9" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C9" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D9" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E9" t="s">
         <v>106</v>
@@ -3179,7 +3192,7 @@
         <v>107</v>
       </c>
       <c r="H9" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I9" t="s">
         <v>87</v>
@@ -3188,7 +3201,7 @@
         <v>109</v>
       </c>
       <c r="K9" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L9" t="s">
         <v>111</v>
@@ -3257,13 +3270,13 @@
         <v>87</v>
       </c>
       <c r="AH9" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AI9" t="s">
         <v>82</v>
       </c>
       <c r="AJ9" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AK9" t="s">
         <v>82</v>
@@ -3272,39 +3285,41 @@
         <v>87</v>
       </c>
       <c r="AM9" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AN9" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AO9" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AP9" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AQ9" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AR9" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AS9" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AT9" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AU9" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AV9" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AW9" t="s">
-        <v>134</v>
-      </c>
-      <c r="AX9" t="s"/>
+        <v>151</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>152</v>
+      </c>
       <c r="AY9" t="s"/>
     </row>
     <row r="10" spans="1:51">
@@ -3312,13 +3327,13 @@
         <v>79</v>
       </c>
       <c r="B10" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C10" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D10" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E10" t="s">
         <v>82</v>
@@ -3330,7 +3345,7 @@
         <v>107</v>
       </c>
       <c r="H10" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I10" t="s">
         <v>87</v>
@@ -3339,7 +3354,7 @@
         <v>109</v>
       </c>
       <c r="K10" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L10" t="s">
         <v>111</v>
@@ -3351,37 +3366,37 @@
         <v>87</v>
       </c>
       <c r="O10" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="P10" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q10" t="s">
         <v>114</v>
       </c>
       <c r="R10" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="S10" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="T10" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="U10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="V10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="W10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="X10" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Y10" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Z10" t="s">
         <v>87</v>
@@ -3408,7 +3423,7 @@
         <v>87</v>
       </c>
       <c r="AH10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AI10" t="s">
         <v>123</v>
@@ -3423,39 +3438,41 @@
         <v>87</v>
       </c>
       <c r="AM10" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AN10" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AO10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AP10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AQ10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AR10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AS10" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AT10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AU10" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AV10" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AW10" t="s">
-        <v>134</v>
-      </c>
-      <c r="AX10" t="s"/>
+        <v>151</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>152</v>
+      </c>
       <c r="AY10" t="s"/>
     </row>
     <row r="11" spans="1:51">
@@ -3463,13 +3480,13 @@
         <v>79</v>
       </c>
       <c r="B11" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C11" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D11" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E11" t="s">
         <v>82</v>
@@ -3481,7 +3498,7 @@
         <v>107</v>
       </c>
       <c r="H11" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I11" t="s">
         <v>87</v>
@@ -3490,7 +3507,7 @@
         <v>109</v>
       </c>
       <c r="K11" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L11" t="s">
         <v>111</v>
@@ -3559,13 +3576,13 @@
         <v>87</v>
       </c>
       <c r="AH11" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AI11" t="s">
         <v>82</v>
       </c>
       <c r="AJ11" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AK11" t="s">
         <v>123</v>
@@ -3574,39 +3591,41 @@
         <v>87</v>
       </c>
       <c r="AM11" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AN11" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AO11" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AP11" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AQ11" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AR11" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AS11" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AT11" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AU11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AV11" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AW11" t="s">
-        <v>134</v>
-      </c>
-      <c r="AX11" t="s"/>
+        <v>151</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>152</v>
+      </c>
       <c r="AY11" t="s"/>
     </row>
     <row r="12" spans="1:51">
@@ -3614,13 +3633,13 @@
         <v>79</v>
       </c>
       <c r="B12" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E12" t="s">
         <v>83</v>
@@ -3632,16 +3651,16 @@
         <v>107</v>
       </c>
       <c r="H12" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I12" t="s">
         <v>87</v>
       </c>
       <c r="J12" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K12" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L12" t="s">
         <v>111</v>
@@ -3662,7 +3681,7 @@
         <v>114</v>
       </c>
       <c r="R12" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S12" t="s">
         <v>87</v>
@@ -3680,16 +3699,16 @@
         <v>87</v>
       </c>
       <c r="X12" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Y12" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Z12" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AA12" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AB12" t="s">
         <v>87</v>
@@ -3725,34 +3744,34 @@
         <v>87</v>
       </c>
       <c r="AM12" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AN12" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AO12" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AP12" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AQ12" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AR12" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AS12" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AT12" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AU12" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AV12" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AW12" t="s">
         <v>103</v>
@@ -3765,25 +3784,25 @@
         <v>79</v>
       </c>
       <c r="B13" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C13" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D13" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E13" t="s">
         <v>82</v>
       </c>
       <c r="F13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G13" t="s">
         <v>107</v>
       </c>
       <c r="H13" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I13" t="s">
         <v>87</v>
@@ -3792,7 +3811,7 @@
         <v>109</v>
       </c>
       <c r="K13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L13" t="s">
         <v>111</v>
@@ -3804,7 +3823,7 @@
         <v>87</v>
       </c>
       <c r="O13" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="P13" t="s">
         <v>87</v>
@@ -3813,7 +3832,7 @@
         <v>114</v>
       </c>
       <c r="R13" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="S13" t="s">
         <v>87</v>
@@ -3831,16 +3850,16 @@
         <v>87</v>
       </c>
       <c r="X13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Y13" t="s">
         <v>87</v>
       </c>
       <c r="Z13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AA13" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AB13" t="s">
         <v>87</v>
@@ -3861,13 +3880,13 @@
         <v>87</v>
       </c>
       <c r="AH13" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AI13" t="s">
         <v>82</v>
       </c>
       <c r="AJ13" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AK13" t="s">
         <v>123</v>
@@ -3876,34 +3895,34 @@
         <v>87</v>
       </c>
       <c r="AM13" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AN13" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AO13" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AP13" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AQ13" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AR13" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AS13" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AT13" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AU13" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AV13" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AW13" t="s">
         <v>103</v>
@@ -3916,13 +3935,13 @@
         <v>79</v>
       </c>
       <c r="B14" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C14" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D14" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E14" t="s">
         <v>82</v>
@@ -3934,19 +3953,19 @@
         <v>107</v>
       </c>
       <c r="H14" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="I14" t="s">
         <v>87</v>
       </c>
       <c r="J14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K14" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M14" t="s">
         <v>87</v>
@@ -4027,37 +4046,37 @@
         <v>87</v>
       </c>
       <c r="AM14" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AN14" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AO14" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AP14" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AQ14" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AR14" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AS14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AT14" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AU14" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AV14" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AW14" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="AX14" t="s"/>
       <c r="AY14" t="s"/>
@@ -4086,22 +4105,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -4128,25 +4147,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -4157,22 +4176,22 @@
         <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E2" t="s">
         <v>82</v>
       </c>
       <c r="F2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -4183,22 +4202,22 @@
         <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E3" t="s">
         <v>83</v>
       </c>
       <c r="F3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G3" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -4209,22 +4228,22 @@
         <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D4" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G4" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H4" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -4235,22 +4254,22 @@
         <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D5" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E5" t="s">
         <v>83</v>
       </c>
       <c r="F5" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G5" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4261,22 +4280,22 @@
         <v>80</v>
       </c>
       <c r="C6" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D6" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E6" t="s">
         <v>82</v>
       </c>
       <c r="F6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -4287,22 +4306,22 @@
         <v>80</v>
       </c>
       <c r="C7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E7" t="s">
         <v>106</v>
       </c>
       <c r="F7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -4313,22 +4332,22 @@
         <v>80</v>
       </c>
       <c r="C8" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D8" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F8" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H8" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -4339,22 +4358,22 @@
         <v>80</v>
       </c>
       <c r="C9" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D9" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E9" t="s">
         <v>82</v>
       </c>
       <c r="F9" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G9" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H9" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -4365,22 +4384,22 @@
         <v>80</v>
       </c>
       <c r="C10" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D10" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F10" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G10" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H10" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -4391,22 +4410,22 @@
         <v>80</v>
       </c>
       <c r="C11" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D11" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F11" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G11" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H11" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -4417,22 +4436,22 @@
         <v>80</v>
       </c>
       <c r="C12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F12" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G12" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H12" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -4440,25 +4459,25 @@
         <v>79</v>
       </c>
       <c r="B13" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C13" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D13" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E13" t="s">
         <v>83</v>
       </c>
       <c r="F13" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G13" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H13" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -4466,25 +4485,25 @@
         <v>79</v>
       </c>
       <c r="B14" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C14" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D14" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E14" t="s">
         <v>83</v>
       </c>
       <c r="F14" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G14" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H14" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -4492,25 +4511,25 @@
         <v>79</v>
       </c>
       <c r="B15" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C15" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D15" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E15" t="s">
         <v>83</v>
       </c>
       <c r="F15" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -4518,25 +4537,25 @@
         <v>79</v>
       </c>
       <c r="B16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C16" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D16" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F16" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G16" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -4544,25 +4563,25 @@
         <v>79</v>
       </c>
       <c r="B17" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C17" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D17" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F17" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G17" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H17" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -4570,25 +4589,25 @@
         <v>79</v>
       </c>
       <c r="B18" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C18" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D18" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F18" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G18" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H18" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -4596,25 +4615,25 @@
         <v>79</v>
       </c>
       <c r="B19" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C19" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D19" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F19" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G19" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H19" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -4622,25 +4641,25 @@
         <v>79</v>
       </c>
       <c r="B20" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C20" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D20" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E20" t="s">
         <v>83</v>
       </c>
       <c r="F20" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="G20" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H20" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -4648,25 +4667,25 @@
         <v>79</v>
       </c>
       <c r="B21" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C21" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D21" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F21" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="G21" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H21" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -4674,25 +4693,25 @@
         <v>79</v>
       </c>
       <c r="B22" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C22" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D22" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E22" t="s">
         <v>106</v>
       </c>
       <c r="F22" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="G22" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H22" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -4700,25 +4719,25 @@
         <v>79</v>
       </c>
       <c r="B23" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C23" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D23" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E23" t="s">
         <v>83</v>
       </c>
       <c r="F23" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G23" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H23" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -4729,22 +4748,22 @@
         <v>104</v>
       </c>
       <c r="C24" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D24" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E24" t="s">
         <v>83</v>
       </c>
       <c r="F24" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="G24" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H24" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -4752,25 +4771,25 @@
         <v>79</v>
       </c>
       <c r="B25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C25" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D25" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E25" t="s">
         <v>106</v>
       </c>
       <c r="F25" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G25" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H25" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -4778,25 +4797,25 @@
         <v>79</v>
       </c>
       <c r="B26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C26" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D26" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E26" t="s">
         <v>82</v>
       </c>
       <c r="F26" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G26" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H26" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -4804,25 +4823,25 @@
         <v>79</v>
       </c>
       <c r="B27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C27" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D27" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F27" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="G27" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H27" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -4830,25 +4849,25 @@
         <v>79</v>
       </c>
       <c r="B28" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C28" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D28" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E28" t="s">
         <v>83</v>
       </c>
       <c r="F28" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G28" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H28" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -4856,25 +4875,25 @@
         <v>79</v>
       </c>
       <c r="B29" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C29" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D29" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E29" t="s">
         <v>106</v>
       </c>
       <c r="F29" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G29" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H29" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>
